--- a/pdfcreater/excel/RSI横截面_纯多头_sh300_日频_每年重置_2018-11-23_OUTPUT.xlsx
+++ b/pdfcreater/excel/RSI横截面_纯多头_sh300_日频_每年重置_2018-11-23_OUTPUT.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70242\Documents\Python\Ruihui-Intern\pdfcreater\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meiconte\Documents\RH\pdfcreater\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95407F6A-D96B-4330-8D28-40C47679CE60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -116,8 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,14 +623,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -641,7 +640,7 @@
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -665,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -685,7 +684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -705,7 +704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -731,7 +730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -757,7 +756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -783,7 +782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -809,7 +808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -835,7 +834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -861,7 +860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -887,7 +886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -913,7 +912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="14.25" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
